--- a/data/nuc_cell_seg_delivery_20170210/auxiliary_spreadsheets/imageID_CellIndex_ometif_20160705_S03.xlsx
+++ b/data/nuc_cell_seg_delivery_20170210/auxiliary_spreadsheets/imageID_CellIndex_ometif_20160705_S03.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="365">
   <si>
     <t>ImageIDCellIndex</t>
   </si>
@@ -1104,6 +1104,21 @@
   </si>
   <si>
     <t>20160705_S03_059_8.ome.tif</t>
+  </si>
+  <si>
+    <t>20160705_S03_060_1.ome.tif</t>
+  </si>
+  <si>
+    <t>20160705_S03_060_3.ome.tif</t>
+  </si>
+  <si>
+    <t>20160705_S03_060_4.ome.tif</t>
+  </si>
+  <si>
+    <t>20160705_S03_060_5.ome.tif</t>
+  </si>
+  <si>
+    <t>20160705_S03_060_6.ome.tif</t>
   </si>
 </sst>
 </file>
@@ -1420,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A360"/>
+  <dimension ref="A1:A365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A360"/>
+      <selection sqref="A1:A365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3228,6 +3243,31 @@
         <v>359</v>
       </c>
     </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>364</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
